--- a/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3_马丁组.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.1.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.1.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.0.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.0.3 新特性|Fix Bug'!$A$1:$U$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +817,7 @@
   <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,10 +930,18 @@
       <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="14">
+        <v>42689</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42689</v>
+      </c>
       <c r="K2" s="12"/>
       <c r="L2" s="23" t="s">
         <v>27</v>
@@ -932,14 +952,20 @@
       <c r="N2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="14"/>
+      <c r="O2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="14">
+        <v>42689</v>
+      </c>
       <c r="Q2" s="23"/>
       <c r="R2" s="24">
         <v>4999</v>
       </c>
       <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="T2" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="U2" s="23"/>
       <c r="V2" s="30"/>
     </row>
@@ -5114,6 +5140,6 @@
   <autoFilter ref="A1:U10"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>